--- a/future_price.xlsx
+++ b/future_price.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Documents\2팀\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Documents\AI팀\KSIF\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -171,7 +171,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="96">
   <si>
     <t>FN4141CF1005</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -361,55 +361,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>DAILY</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>DER</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>DF10000400</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>DAILY</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>기아차     F 연결선물지수</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>두산인프라 F 연결선물지수</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>삼성물산   F 연결선물지수</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>DER</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>DF10000400</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>DER</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>DF10000400</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>현대차     F 연결선물지수</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>DER</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -429,10 +385,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>하이닉스   F 연결선물지수</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>대우증권   F 연결선물지수</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -445,43 +397,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>현대제철   F 연결선물지수</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>코스피200 F 연결선물지수</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>DER</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>DAILY</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>DAILY</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>DF10000400</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>DF10000400</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>KT         F 연결선물지수</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>하나지주   F 연결선물지수</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>한국전력   F 연결선물지수</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -489,23 +405,19 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Last Refresh: 2014-07-09 10:26:49</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Current(20140708)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Symbol Name</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>DER</t>
+    <t>Last Refresh: 2014-07-24 09:45:16</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>DF10000400</t>
+    <t>Current(20140723)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DAILY</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -537,6 +449,50 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>DER</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DF10000400</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DF10000400</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DER</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DF10000400</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DAILY</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DAILY</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DER</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DAILY</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DER</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DF10000400</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>DAILY</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -550,6 +506,54 @@
   </si>
   <si>
     <t>DF10000400</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DER</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DF10000400</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DAILY</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>KT         F 연결선물지수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>하이닉스   F 연결선물지수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>두산인프라 F 연결선물지수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>삼성물산   F 연결선물지수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>한국전력   F 연결선물지수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>현대제철   F 연결선물지수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>코스피200 F 연결선물지수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>종가(포인트)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>종가(포인트)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -866,12 +870,11 @@
   <ax:ocxPr ax:name="AutoSizeMode" ax:value="GrowAndShrink"/>
   <ax:ocxPr ax:name="BackgroundImageLayout" ax:value="None"/>
   <ax:ocxPr ax:name="Font" ax:value="Arial, 7pt, style=Bold"/>
-  <ax:ocxPr ax:name="Location" ax:value="23, 14"/>
+  <ax:ocxPr ax:name="Location" ax:value="23, -1"/>
   <ax:ocxPr ax:name="Margin" ax:value="0, 0, 0, 0"/>
   <ax:ocxPr ax:name="Name" ax:value="FnBtn"/>
   <ax:ocxPr ax:name="Size" ax:value="42, 12"/>
   <ax:ocxPr ax:name="TabIndex" ax:value="0"/>
-  <ax:ocxPr ax:name="Visible" ax:value="False"/>
 </ax:ocx>
 </file>
 
@@ -1246,10 +1249,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet10"/>
-  <dimension ref="A1:AJ884"/>
+  <dimension ref="A1:AJ895"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I61" sqref="I61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1271,7 +1274,7 @@
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.3">
@@ -1470,7 +1473,7 @@
         <v>20110101</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="D8" s="15"/>
       <c r="E8" s="15"/>
@@ -1566,19 +1569,19 @@
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>39</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>44</v>
@@ -1587,52 +1590,52 @@
         <v>45</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="I10" s="6" t="s">
         <v>46</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="L10" s="6" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="M10" s="6" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="N10" s="6" t="s">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="O10" s="6" t="s">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="P10" s="6" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="Q10" s="6" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="R10" s="6" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="S10" s="6" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="T10" s="6" t="s">
-        <v>68</v>
+        <v>92</v>
       </c>
       <c r="U10" s="6" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="V10" s="6" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="W10" s="6" t="s">
-        <v>69</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.3">
@@ -1646,64 +1649,64 @@
         <v>40</v>
       </c>
       <c r="D11" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="K11" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="L11" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="M11" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="N11" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="O11" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="P11" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="E11" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="H11" s="6" t="s">
+      <c r="Q11" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="R11" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="S11" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="T11" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="U11" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="I11" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="J11" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="K11" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="L11" s="6" t="s">
+      <c r="V11" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="M11" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="N11" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="O11" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="P11" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q11" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="R11" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="S11" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="T11" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="U11" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="V11" s="6" t="s">
-        <v>93</v>
-      </c>
       <c r="W11" s="6" t="s">
-        <v>54</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:36" x14ac:dyDescent="0.3">
@@ -1714,67 +1717,67 @@
         <v>41</v>
       </c>
       <c r="C12" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="K12" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="L12" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="M12" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="N12" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="O12" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="P12" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q12" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="R12" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="S12" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="T12" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="U12" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="D12" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="H12" s="6" t="s">
+      <c r="V12" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="I12" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="J12" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="K12" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="L12" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="M12" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="N12" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="O12" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="P12" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q12" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="R12" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="S12" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="T12" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="U12" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="V12" s="6" t="s">
-        <v>94</v>
-      </c>
       <c r="W12" s="6" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:36" x14ac:dyDescent="0.3">
@@ -1782,13 +1785,13 @@
         <v>32</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>42</v>
+        <v>94</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>42</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>42</v>
+        <v>95</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>42</v>
@@ -1797,7 +1800,7 @@
         <v>42</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>42</v>
+        <v>94</v>
       </c>
       <c r="H13" s="6" t="s">
         <v>42</v>
@@ -1815,13 +1818,13 @@
         <v>42</v>
       </c>
       <c r="M13" s="6" t="s">
-        <v>42</v>
+        <v>94</v>
       </c>
       <c r="N13" s="6" t="s">
-        <v>42</v>
+        <v>94</v>
       </c>
       <c r="O13" s="6" t="s">
-        <v>42</v>
+        <v>94</v>
       </c>
       <c r="P13" s="6" t="s">
         <v>42</v>
@@ -1833,7 +1836,7 @@
         <v>42</v>
       </c>
       <c r="S13" s="6" t="s">
-        <v>42</v>
+        <v>94</v>
       </c>
       <c r="T13" s="6" t="s">
         <v>42</v>
@@ -1853,70 +1856,70 @@
         <v>11</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="C14" s="19" t="s">
         <v>43</v>
       </c>
       <c r="D14" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="F14" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="G14" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="H14" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="E14" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="F14" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="G14" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="H14" s="19" t="s">
-        <v>47</v>
-      </c>
       <c r="I14" s="19" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="J14" s="19" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="K14" s="19" t="s">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="L14" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="M14" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="N14" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="O14" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="P14" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="M14" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="N14" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="O14" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="P14" s="19" t="s">
-        <v>91</v>
-      </c>
       <c r="Q14" s="19" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="R14" s="19" t="s">
-        <v>50</v>
+        <v>77</v>
       </c>
       <c r="S14" s="19" t="s">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="T14" s="19" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="U14" s="19" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="V14" s="19" t="s">
         <v>43</v>
       </c>
       <c r="W14" s="19" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="AG14" s="13"/>
       <c r="AJ14" s="13"/>
@@ -63689,6 +63692,787 @@
       </c>
       <c r="W884" s="10">
         <v>260.45</v>
+      </c>
+    </row>
+    <row r="885" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A885" s="7">
+        <v>41829</v>
+      </c>
+      <c r="B885" s="11">
+        <v>38275</v>
+      </c>
+      <c r="C885" s="11">
+        <v>36000</v>
+      </c>
+      <c r="D885" s="11">
+        <v>30450</v>
+      </c>
+      <c r="E885" s="11">
+        <v>91800</v>
+      </c>
+      <c r="F885" s="11">
+        <v>32825</v>
+      </c>
+      <c r="G885" s="8">
+        <v>74250</v>
+      </c>
+      <c r="H885" s="8">
+        <v>300250</v>
+      </c>
+      <c r="I885" s="8">
+        <v>101500</v>
+      </c>
+      <c r="J885" s="8">
+        <v>243250</v>
+      </c>
+      <c r="K885" s="8">
+        <v>50100</v>
+      </c>
+      <c r="L885" s="11">
+        <v>54050</v>
+      </c>
+      <c r="M885" s="11">
+        <v>9060</v>
+      </c>
+      <c r="N885" s="11">
+        <v>12975</v>
+      </c>
+      <c r="O885" s="11">
+        <v>72800</v>
+      </c>
+      <c r="P885" s="11">
+        <v>1311500</v>
+      </c>
+      <c r="Q885" s="8">
+        <v>46250</v>
+      </c>
+      <c r="R885" s="8">
+        <v>36875</v>
+      </c>
+      <c r="S885" s="8">
+        <v>37150</v>
+      </c>
+      <c r="T885" s="8">
+        <v>69950</v>
+      </c>
+      <c r="U885" s="8">
+        <v>171500</v>
+      </c>
+      <c r="V885" s="8">
+        <v>224500</v>
+      </c>
+      <c r="W885" s="8">
+        <v>259.39999999999998</v>
+      </c>
+    </row>
+    <row r="886" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A886" s="7">
+        <v>41830</v>
+      </c>
+      <c r="B886" s="11">
+        <v>37250</v>
+      </c>
+      <c r="C886" s="11">
+        <v>35850</v>
+      </c>
+      <c r="D886" s="11">
+        <v>30400</v>
+      </c>
+      <c r="E886" s="11">
+        <v>92800</v>
+      </c>
+      <c r="F886" s="11">
+        <v>32450</v>
+      </c>
+      <c r="G886" s="8">
+        <v>74100</v>
+      </c>
+      <c r="H886" s="8">
+        <v>300750</v>
+      </c>
+      <c r="I886" s="8">
+        <v>100750</v>
+      </c>
+      <c r="J886" s="8">
+        <v>240750</v>
+      </c>
+      <c r="K886" s="8">
+        <v>49625</v>
+      </c>
+      <c r="L886" s="11">
+        <v>54500</v>
+      </c>
+      <c r="M886" s="11">
+        <v>9275</v>
+      </c>
+      <c r="N886" s="11">
+        <v>13075</v>
+      </c>
+      <c r="O886" s="11">
+        <v>72100</v>
+      </c>
+      <c r="P886" s="11">
+        <v>1311500</v>
+      </c>
+      <c r="Q886" s="8">
+        <v>46550</v>
+      </c>
+      <c r="R886" s="8">
+        <v>36750</v>
+      </c>
+      <c r="S886" s="8">
+        <v>38650</v>
+      </c>
+      <c r="T886" s="8">
+        <v>70900</v>
+      </c>
+      <c r="U886" s="8">
+        <v>168000</v>
+      </c>
+      <c r="V886" s="8">
+        <v>228750</v>
+      </c>
+      <c r="W886" s="8">
+        <v>259.8</v>
+      </c>
+    </row>
+    <row r="887" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A887" s="7">
+        <v>41831</v>
+      </c>
+      <c r="B887" s="11">
+        <v>37050</v>
+      </c>
+      <c r="C887" s="11">
+        <v>35550</v>
+      </c>
+      <c r="D887" s="11">
+        <v>30225</v>
+      </c>
+      <c r="E887" s="11">
+        <v>93050</v>
+      </c>
+      <c r="F887" s="11">
+        <v>32325</v>
+      </c>
+      <c r="G887" s="8">
+        <v>73200</v>
+      </c>
+      <c r="H887" s="8">
+        <v>296500</v>
+      </c>
+      <c r="I887" s="8">
+        <v>100750</v>
+      </c>
+      <c r="J887" s="8">
+        <v>243500</v>
+      </c>
+      <c r="K887" s="8">
+        <v>49325</v>
+      </c>
+      <c r="L887" s="11">
+        <v>54450</v>
+      </c>
+      <c r="M887" s="11">
+        <v>9280</v>
+      </c>
+      <c r="N887" s="11">
+        <v>13000</v>
+      </c>
+      <c r="O887" s="11">
+        <v>71200</v>
+      </c>
+      <c r="P887" s="11">
+        <v>1294500</v>
+      </c>
+      <c r="Q887" s="8">
+        <v>45950</v>
+      </c>
+      <c r="R887" s="8">
+        <v>36450</v>
+      </c>
+      <c r="S887" s="8">
+        <v>38500</v>
+      </c>
+      <c r="T887" s="8">
+        <v>70850</v>
+      </c>
+      <c r="U887" s="8">
+        <v>162500</v>
+      </c>
+      <c r="V887" s="8">
+        <v>224250</v>
+      </c>
+      <c r="W887" s="8">
+        <v>257.8</v>
+      </c>
+    </row>
+    <row r="888" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A888" s="7">
+        <v>41834</v>
+      </c>
+      <c r="B888" s="11">
+        <v>38850</v>
+      </c>
+      <c r="C888" s="11">
+        <v>35300</v>
+      </c>
+      <c r="D888" s="11">
+        <v>30200</v>
+      </c>
+      <c r="E888" s="11">
+        <v>95000</v>
+      </c>
+      <c r="F888" s="11">
+        <v>32825</v>
+      </c>
+      <c r="G888" s="8">
+        <v>72700</v>
+      </c>
+      <c r="H888" s="8">
+        <v>292250</v>
+      </c>
+      <c r="I888" s="8">
+        <v>100000</v>
+      </c>
+      <c r="J888" s="8">
+        <v>243500</v>
+      </c>
+      <c r="K888" s="8">
+        <v>49525</v>
+      </c>
+      <c r="L888" s="11">
+        <v>53750</v>
+      </c>
+      <c r="M888" s="11">
+        <v>9370</v>
+      </c>
+      <c r="N888" s="11">
+        <v>13175</v>
+      </c>
+      <c r="O888" s="11">
+        <v>72400</v>
+      </c>
+      <c r="P888" s="11">
+        <v>1299000</v>
+      </c>
+      <c r="Q888" s="8">
+        <v>46100</v>
+      </c>
+      <c r="R888" s="8">
+        <v>36350</v>
+      </c>
+      <c r="S888" s="8">
+        <v>38650</v>
+      </c>
+      <c r="T888" s="8">
+        <v>69000</v>
+      </c>
+      <c r="U888" s="8">
+        <v>164500</v>
+      </c>
+      <c r="V888" s="8">
+        <v>224000</v>
+      </c>
+      <c r="W888" s="8">
+        <v>258.5</v>
+      </c>
+    </row>
+    <row r="889" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A889" s="9">
+        <v>41835</v>
+      </c>
+      <c r="B889" s="12">
+        <v>38400</v>
+      </c>
+      <c r="C889" s="12">
+        <v>35800</v>
+      </c>
+      <c r="D889" s="12">
+        <v>30325</v>
+      </c>
+      <c r="E889" s="12">
+        <v>94850</v>
+      </c>
+      <c r="F889" s="12">
+        <v>32400</v>
+      </c>
+      <c r="G889" s="10">
+        <v>73350</v>
+      </c>
+      <c r="H889" s="10">
+        <v>294000</v>
+      </c>
+      <c r="I889" s="10">
+        <v>101000</v>
+      </c>
+      <c r="J889" s="10">
+        <v>241250</v>
+      </c>
+      <c r="K889" s="10">
+        <v>49975</v>
+      </c>
+      <c r="L889" s="12">
+        <v>55600</v>
+      </c>
+      <c r="M889" s="12">
+        <v>9445</v>
+      </c>
+      <c r="N889" s="12">
+        <v>13650</v>
+      </c>
+      <c r="O889" s="12">
+        <v>73050</v>
+      </c>
+      <c r="P889" s="12">
+        <v>1322500</v>
+      </c>
+      <c r="Q889" s="10">
+        <v>46450</v>
+      </c>
+      <c r="R889" s="10">
+        <v>37100</v>
+      </c>
+      <c r="S889" s="10">
+        <v>38450</v>
+      </c>
+      <c r="T889" s="10">
+        <v>71050</v>
+      </c>
+      <c r="U889" s="10">
+        <v>164250</v>
+      </c>
+      <c r="V889" s="10">
+        <v>230000</v>
+      </c>
+      <c r="W889" s="10">
+        <v>261.35000000000002</v>
+      </c>
+    </row>
+    <row r="890" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A890" s="7">
+        <v>41836</v>
+      </c>
+      <c r="B890" s="11">
+        <v>37450</v>
+      </c>
+      <c r="C890" s="11">
+        <v>35800</v>
+      </c>
+      <c r="D890" s="11">
+        <v>30150</v>
+      </c>
+      <c r="E890" s="11">
+        <v>93000</v>
+      </c>
+      <c r="F890" s="11">
+        <v>32825</v>
+      </c>
+      <c r="G890" s="8">
+        <v>73600</v>
+      </c>
+      <c r="H890" s="8">
+        <v>302250</v>
+      </c>
+      <c r="I890" s="8">
+        <v>100500</v>
+      </c>
+      <c r="J890" s="8">
+        <v>240750</v>
+      </c>
+      <c r="K890" s="8">
+        <v>51150</v>
+      </c>
+      <c r="L890" s="11">
+        <v>56050</v>
+      </c>
+      <c r="M890" s="11">
+        <v>9430</v>
+      </c>
+      <c r="N890" s="11">
+        <v>13650</v>
+      </c>
+      <c r="O890" s="11">
+        <v>72600</v>
+      </c>
+      <c r="P890" s="11">
+        <v>1325500</v>
+      </c>
+      <c r="Q890" s="8">
+        <v>46350</v>
+      </c>
+      <c r="R890" s="8">
+        <v>37575</v>
+      </c>
+      <c r="S890" s="8">
+        <v>38225</v>
+      </c>
+      <c r="T890" s="8">
+        <v>71500</v>
+      </c>
+      <c r="U890" s="8">
+        <v>165500</v>
+      </c>
+      <c r="V890" s="8">
+        <v>235000</v>
+      </c>
+      <c r="W890" s="8">
+        <v>261.85000000000002</v>
+      </c>
+    </row>
+    <row r="891" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A891" s="7">
+        <v>41837</v>
+      </c>
+      <c r="B891" s="11">
+        <v>37575</v>
+      </c>
+      <c r="C891" s="11">
+        <v>36300</v>
+      </c>
+      <c r="D891" s="11">
+        <v>29975</v>
+      </c>
+      <c r="E891" s="11">
+        <v>94500</v>
+      </c>
+      <c r="F891" s="11">
+        <v>33850</v>
+      </c>
+      <c r="G891" s="8">
+        <v>75900</v>
+      </c>
+      <c r="H891" s="8">
+        <v>308250</v>
+      </c>
+      <c r="I891" s="8">
+        <v>101750</v>
+      </c>
+      <c r="J891" s="8">
+        <v>242250</v>
+      </c>
+      <c r="K891" s="8">
+        <v>51550</v>
+      </c>
+      <c r="L891" s="11">
+        <v>55850</v>
+      </c>
+      <c r="M891" s="11">
+        <v>9550</v>
+      </c>
+      <c r="N891" s="11">
+        <v>13650</v>
+      </c>
+      <c r="O891" s="11">
+        <v>73000</v>
+      </c>
+      <c r="P891" s="11">
+        <v>1332000</v>
+      </c>
+      <c r="Q891" s="8">
+        <v>46225</v>
+      </c>
+      <c r="R891" s="8">
+        <v>37850</v>
+      </c>
+      <c r="S891" s="8">
+        <v>38025</v>
+      </c>
+      <c r="T891" s="8">
+        <v>72750</v>
+      </c>
+      <c r="U891" s="8">
+        <v>166500</v>
+      </c>
+      <c r="V891" s="8">
+        <v>234250</v>
+      </c>
+      <c r="W891" s="8">
+        <v>262.5</v>
+      </c>
+    </row>
+    <row r="892" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A892" s="7">
+        <v>41838</v>
+      </c>
+      <c r="B892" s="11">
+        <v>36525</v>
+      </c>
+      <c r="C892" s="11">
+        <v>35900</v>
+      </c>
+      <c r="D892" s="11">
+        <v>29850</v>
+      </c>
+      <c r="E892" s="11">
+        <v>93400</v>
+      </c>
+      <c r="F892" s="11">
+        <v>33975</v>
+      </c>
+      <c r="G892" s="8">
+        <v>74900</v>
+      </c>
+      <c r="H892" s="8">
+        <v>302500</v>
+      </c>
+      <c r="I892" s="8">
+        <v>101750</v>
+      </c>
+      <c r="J892" s="8">
+        <v>245000</v>
+      </c>
+      <c r="K892" s="8">
+        <v>51250</v>
+      </c>
+      <c r="L892" s="11">
+        <v>56100</v>
+      </c>
+      <c r="M892" s="11">
+        <v>9600</v>
+      </c>
+      <c r="N892" s="11">
+        <v>13675</v>
+      </c>
+      <c r="O892" s="11">
+        <v>72100</v>
+      </c>
+      <c r="P892" s="11">
+        <v>1342000</v>
+      </c>
+      <c r="Q892" s="8">
+        <v>45250</v>
+      </c>
+      <c r="R892" s="8">
+        <v>37550</v>
+      </c>
+      <c r="S892" s="8">
+        <v>37925</v>
+      </c>
+      <c r="T892" s="8">
+        <v>72550</v>
+      </c>
+      <c r="U892" s="8">
+        <v>166500</v>
+      </c>
+      <c r="V892" s="8">
+        <v>233000</v>
+      </c>
+      <c r="W892" s="8">
+        <v>262.3</v>
+      </c>
+    </row>
+    <row r="893" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A893" s="7">
+        <v>41841</v>
+      </c>
+      <c r="B893" s="11">
+        <v>36900</v>
+      </c>
+      <c r="C893" s="11">
+        <v>36100</v>
+      </c>
+      <c r="D893" s="11">
+        <v>29925</v>
+      </c>
+      <c r="E893" s="11">
+        <v>95100</v>
+      </c>
+      <c r="F893" s="11">
+        <v>32800</v>
+      </c>
+      <c r="G893" s="8">
+        <v>73600</v>
+      </c>
+      <c r="H893" s="8">
+        <v>305250</v>
+      </c>
+      <c r="I893" s="8">
+        <v>100000</v>
+      </c>
+      <c r="J893" s="8">
+        <v>245250</v>
+      </c>
+      <c r="K893" s="8">
+        <v>50850</v>
+      </c>
+      <c r="L893" s="11">
+        <v>55650</v>
+      </c>
+      <c r="M893" s="11">
+        <v>9685</v>
+      </c>
+      <c r="N893" s="11">
+        <v>13675</v>
+      </c>
+      <c r="O893" s="11">
+        <v>72250</v>
+      </c>
+      <c r="P893" s="11">
+        <v>1354000</v>
+      </c>
+      <c r="Q893" s="8">
+        <v>45875</v>
+      </c>
+      <c r="R893" s="8">
+        <v>38075</v>
+      </c>
+      <c r="S893" s="8">
+        <v>39200</v>
+      </c>
+      <c r="T893" s="8">
+        <v>72050</v>
+      </c>
+      <c r="U893" s="8">
+        <v>166250</v>
+      </c>
+      <c r="V893" s="8">
+        <v>228000</v>
+      </c>
+      <c r="W893" s="8">
+        <v>262.2</v>
+      </c>
+    </row>
+    <row r="894" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A894" s="9">
+        <v>41842</v>
+      </c>
+      <c r="B894" s="12">
+        <v>37825</v>
+      </c>
+      <c r="C894" s="12">
+        <v>36375</v>
+      </c>
+      <c r="D894" s="12">
+        <v>30100</v>
+      </c>
+      <c r="E894" s="12">
+        <v>96000</v>
+      </c>
+      <c r="F894" s="12">
+        <v>33625</v>
+      </c>
+      <c r="G894" s="10">
+        <v>74300</v>
+      </c>
+      <c r="H894" s="10">
+        <v>309750</v>
+      </c>
+      <c r="I894" s="10">
+        <v>99900</v>
+      </c>
+      <c r="J894" s="10">
+        <v>244500</v>
+      </c>
+      <c r="K894" s="10">
+        <v>51300</v>
+      </c>
+      <c r="L894" s="12">
+        <v>55550</v>
+      </c>
+      <c r="M894" s="12">
+        <v>9720</v>
+      </c>
+      <c r="N894" s="12">
+        <v>13825</v>
+      </c>
+      <c r="O894" s="12">
+        <v>72600</v>
+      </c>
+      <c r="P894" s="12">
+        <v>1354500</v>
+      </c>
+      <c r="Q894" s="10">
+        <v>46350</v>
+      </c>
+      <c r="R894" s="10">
+        <v>38850</v>
+      </c>
+      <c r="S894" s="10">
+        <v>39350</v>
+      </c>
+      <c r="T894" s="10">
+        <v>72200</v>
+      </c>
+      <c r="U894" s="10">
+        <v>167000</v>
+      </c>
+      <c r="V894" s="10">
+        <v>229500</v>
+      </c>
+      <c r="W894" s="10">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="895" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A895" s="7">
+        <v>41843</v>
+      </c>
+      <c r="B895" s="11">
+        <v>39150</v>
+      </c>
+      <c r="C895" s="11">
+        <v>36925</v>
+      </c>
+      <c r="D895" s="11">
+        <v>30150</v>
+      </c>
+      <c r="E895" s="11">
+        <v>96400</v>
+      </c>
+      <c r="F895" s="11">
+        <v>32900</v>
+      </c>
+      <c r="G895" s="8">
+        <v>74400</v>
+      </c>
+      <c r="H895" s="8">
+        <v>317750</v>
+      </c>
+      <c r="I895" s="8">
+        <v>99600</v>
+      </c>
+      <c r="J895" s="8">
+        <v>243000</v>
+      </c>
+      <c r="K895" s="8">
+        <v>49900</v>
+      </c>
+      <c r="L895" s="11">
+        <v>55400</v>
+      </c>
+      <c r="M895" s="11">
+        <v>9945</v>
+      </c>
+      <c r="N895" s="11">
+        <v>13875</v>
+      </c>
+      <c r="O895" s="11">
+        <v>73200</v>
+      </c>
+      <c r="P895" s="11">
+        <v>1345000</v>
+      </c>
+      <c r="Q895" s="8">
+        <v>46625</v>
+      </c>
+      <c r="R895" s="8">
+        <v>39250</v>
+      </c>
+      <c r="S895" s="8">
+        <v>39450</v>
+      </c>
+      <c r="T895" s="8">
+        <v>72500</v>
+      </c>
+      <c r="U895" s="8">
+        <v>171250</v>
+      </c>
+      <c r="V895" s="8">
+        <v>226500</v>
+      </c>
+      <c r="W895" s="8">
+        <v>263.60000000000002</v>
       </c>
     </row>
   </sheetData>
